--- a/data/142/STANOR/07095 Index of production by contents Total.xlsx
+++ b/data/142/STANOR/07095 Index of production by contents Total.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="423">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="427">
   <x:si>
     <x:t>07095: Index of production (2005=100), by industry/main industrial grouping, contents and month</x:t>
   </x:si>
@@ -1165,6 +1165,15 @@
     <x:t>2021M10</x:t>
   </x:si>
   <x:si>
+    <x:t>2021M11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2021M12</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022M01</x:t>
+  </x:si>
+  <x:si>
     <x:t>Extraction, mining, manufacturing and electricity</x:t>
   </x:si>
   <x:si>
@@ -1207,16 +1216,25 @@
     <x:t>The weights are value added at factor prices. The levels of aggregations refer to the Standard Industrial Classification SIC 2007.</x:t>
   </x:si>
   <x:si>
+    <x:t xml:space="preserve">Because of calculation errors for mining and quarrying for all months in 2021,  figures for mining and quarrying and overlying aggregates have been corrected 10th February 2022. 
+Following aggregates have been affected by this change:
+&lt;li&gt;Extraction, mining, manufacturing and electricity&lt;/li&gt; 
+&lt;li&gt;Manufacturing, mining and quarrying&lt;/li&gt; 
+&lt;li&gt;Mining and quarrying&lt;/li&gt; 
+&lt;li&gt;Intermediate goods&lt;/li&gt; 
+</x:t>
+  </x:si>
+  <x:si>
     <x:t>. = Category not applicable. Figures do not exist at this time, because the category was not in use when the figures were collected.</x:t>
   </x:si>
   <x:si>
-    <x:t>Latest update:</x:t>
+    <x:t>Updated:</x:t>
   </x:si>
   <x:si>
     <x:t>Index of production. Seasonally adjusted:</x:t>
   </x:si>
   <x:si>
-    <x:t>20211207 08:00</x:t>
+    <x:t>20220307 08:00</x:t>
   </x:si>
   <x:si>
     <x:t>Index of production. Calendar adjusted:</x:t>
@@ -1679,23 +1697,21 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:NT100"/>
+  <x:dimension ref="A1:NW101"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="40.710625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="37.300625" style="0" customWidth="1"/>
-    <x:col min="3" max="384" width="10.040625" style="0" customWidth="1"/>
+    <x:col min="1" max="387" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:384">
+    <x:row r="1" spans="1:387">
       <x:c r="A1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:384">
+    <x:row r="3" spans="1:387">
       <x:c r="C3" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -2842,13 +2858,22 @@
       <x:c r="NT3" s="2" t="s">
         <x:v>382</x:v>
       </x:c>
+      <x:c r="NU3" s="2" t="s">
+        <x:v>383</x:v>
+      </x:c>
+      <x:c r="NV3" s="2" t="s">
+        <x:v>384</x:v>
+      </x:c>
+      <x:c r="NW3" s="2" t="s">
+        <x:v>385</x:v>
+      </x:c>
     </x:row>
-    <x:row r="4" spans="1:384">
+    <x:row r="4" spans="1:387">
       <x:c r="A4" s="2" t="s">
-        <x:v>383</x:v>
+        <x:v>386</x:v>
       </x:c>
       <x:c r="B4" s="2" t="s">
-        <x:v>384</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="C4" s="3" t="n">
         <x:v>79.7</x:v>
@@ -3907,7 +3932,7 @@
         <x:v>82.9</x:v>
       </x:c>
       <x:c r="MQ4" s="3" t="n">
-        <x:v>83</x:v>
+        <x:v>82.9</x:v>
       </x:c>
       <x:c r="MR4" s="3" t="n">
         <x:v>81.9</x:v>
@@ -3916,7 +3941,7 @@
         <x:v>82.9</x:v>
       </x:c>
       <x:c r="MT4" s="3" t="n">
-        <x:v>81.5</x:v>
+        <x:v>81.4</x:v>
       </x:c>
       <x:c r="MU4" s="3" t="n">
         <x:v>80.7</x:v>
@@ -3928,10 +3953,10 @@
         <x:v>85.9</x:v>
       </x:c>
       <x:c r="MX4" s="3" t="n">
-        <x:v>86.6</x:v>
+        <x:v>86.7</x:v>
       </x:c>
       <x:c r="MY4" s="3" t="n">
-        <x:v>84.6</x:v>
+        <x:v>84.7</x:v>
       </x:c>
       <x:c r="MZ4" s="3" t="n">
         <x:v>86.7</x:v>
@@ -3940,7 +3965,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="NB4" s="3" t="n">
-        <x:v>87.5</x:v>
+        <x:v>87.4</x:v>
       </x:c>
       <x:c r="NC4" s="3" t="n">
         <x:v>86.4</x:v>
@@ -3955,51 +3980,60 @@
         <x:v>88.8</x:v>
       </x:c>
       <x:c r="NG4" s="3" t="n">
-        <x:v>87.3</x:v>
+        <x:v>87.2</x:v>
       </x:c>
       <x:c r="NH4" s="3" t="n">
         <x:v>83.8</x:v>
       </x:c>
       <x:c r="NI4" s="3" t="n">
-        <x:v>85.3</x:v>
+        <x:v>85.1</x:v>
       </x:c>
       <x:c r="NJ4" s="3" t="n">
-        <x:v>87.9</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="NK4" s="3" t="n">
-        <x:v>88.9</x:v>
+        <x:v>89.1</x:v>
       </x:c>
       <x:c r="NL4" s="3" t="n">
-        <x:v>87.7</x:v>
+        <x:v>87.8</x:v>
       </x:c>
       <x:c r="NM4" s="3" t="n">
+        <x:v>88.7</x:v>
+      </x:c>
+      <x:c r="NN4" s="3" t="n">
         <x:v>88.6</x:v>
       </x:c>
-      <x:c r="NN4" s="3" t="n">
-        <x:v>88.5</x:v>
-      </x:c>
       <x:c r="NO4" s="3" t="n">
-        <x:v>88.2</x:v>
+        <x:v>88.3</x:v>
       </x:c>
       <x:c r="NP4" s="3" t="n">
-        <x:v>89.1</x:v>
+        <x:v>89.3</x:v>
       </x:c>
       <x:c r="NQ4" s="3" t="n">
-        <x:v>89.1</x:v>
+        <x:v>89.3</x:v>
       </x:c>
       <x:c r="NR4" s="3" t="n">
-        <x:v>91.5</x:v>
+        <x:v>91.7</x:v>
       </x:c>
       <x:c r="NS4" s="3" t="n">
-        <x:v>94.5</x:v>
+        <x:v>94.7</x:v>
       </x:c>
       <x:c r="NT4" s="3" t="n">
-        <x:v>89.5</x:v>
+        <x:v>89.7</x:v>
+      </x:c>
+      <x:c r="NU4" s="3" t="n">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="NV4" s="3" t="n">
+        <x:v>89.4</x:v>
+      </x:c>
+      <x:c r="NW4" s="3" t="n">
+        <x:v>90.2</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:384">
+    <x:row r="5" spans="1:387">
       <x:c r="B5" s="2" t="s">
-        <x:v>385</x:v>
+        <x:v>388</x:v>
       </x:c>
       <x:c r="C5" s="3" t="n">
         <x:v>83.9</x:v>
@@ -5061,7 +5095,7 @@
         <x:v>82.6</x:v>
       </x:c>
       <x:c r="MR5" s="3" t="n">
-        <x:v>78.3</x:v>
+        <x:v>78.2</x:v>
       </x:c>
       <x:c r="MS5" s="3" t="n">
         <x:v>73.3</x:v>
@@ -5097,7 +5131,7 @@
         <x:v>85.2</x:v>
       </x:c>
       <x:c r="ND5" s="3" t="n">
-        <x:v>80.6</x:v>
+        <x:v>80.5</x:v>
       </x:c>
       <x:c r="NE5" s="3" t="n">
         <x:v>78.7</x:v>
@@ -5118,39 +5152,48 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="NK5" s="3" t="n">
-        <x:v>96.7</x:v>
+        <x:v>96.8</x:v>
       </x:c>
       <x:c r="NL5" s="3" t="n">
-        <x:v>87.8</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="NM5" s="3" t="n">
-        <x:v>93</x:v>
+        <x:v>93.2</x:v>
       </x:c>
       <x:c r="NN5" s="3" t="n">
-        <x:v>86</x:v>
+        <x:v>86.1</x:v>
       </x:c>
       <x:c r="NO5" s="3" t="n">
-        <x:v>87</x:v>
+        <x:v>87.2</x:v>
       </x:c>
       <x:c r="NP5" s="3" t="n">
-        <x:v>84.1</x:v>
+        <x:v>84.3</x:v>
       </x:c>
       <x:c r="NQ5" s="3" t="n">
-        <x:v>79.7</x:v>
+        <x:v>79.8</x:v>
       </x:c>
       <x:c r="NR5" s="3" t="n">
-        <x:v>88.4</x:v>
+        <x:v>88.6</x:v>
       </x:c>
       <x:c r="NS5" s="3" t="n">
-        <x:v>89</x:v>
+        <x:v>89.3</x:v>
       </x:c>
       <x:c r="NT5" s="3" t="n">
-        <x:v>94.5</x:v>
+        <x:v>94.6</x:v>
+      </x:c>
+      <x:c r="NU5" s="3" t="n">
+        <x:v>92.7</x:v>
+      </x:c>
+      <x:c r="NV5" s="3" t="n">
+        <x:v>92.8</x:v>
+      </x:c>
+      <x:c r="NW5" s="3" t="n">
+        <x:v>97</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:384">
+    <x:row r="6" spans="1:387">
       <x:c r="B6" s="2" t="s">
-        <x:v>386</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="C6" s="3" t="n">
         <x:v>76.4</x:v>
@@ -6269,42 +6312,51 @@
         <x:v>91.1</x:v>
       </x:c>
       <x:c r="NK6" s="3" t="n">
-        <x:v>92.2</x:v>
+        <x:v>92.3</x:v>
       </x:c>
       <x:c r="NL6" s="3" t="n">
-        <x:v>84.5</x:v>
+        <x:v>84.6</x:v>
       </x:c>
       <x:c r="NM6" s="3" t="n">
-        <x:v>91.2</x:v>
+        <x:v>91.3</x:v>
       </x:c>
       <x:c r="NN6" s="3" t="n">
-        <x:v>84.8</x:v>
+        <x:v>84.9</x:v>
       </x:c>
       <x:c r="NO6" s="3" t="n">
-        <x:v>82</x:v>
+        <x:v>82.1</x:v>
       </x:c>
       <x:c r="NP6" s="3" t="n">
-        <x:v>82.2</x:v>
+        <x:v>82.4</x:v>
       </x:c>
       <x:c r="NQ6" s="3" t="n">
-        <x:v>79.7</x:v>
+        <x:v>79.8</x:v>
       </x:c>
       <x:c r="NR6" s="3" t="n">
-        <x:v>87</x:v>
+        <x:v>87.2</x:v>
       </x:c>
       <x:c r="NS6" s="3" t="n">
-        <x:v>87.4</x:v>
+        <x:v>87.6</x:v>
       </x:c>
       <x:c r="NT6" s="3" t="n">
-        <x:v>91.5</x:v>
+        <x:v>91.7</x:v>
+      </x:c>
+      <x:c r="NU6" s="3" t="n">
+        <x:v>90.4</x:v>
+      </x:c>
+      <x:c r="NV6" s="3" t="n">
+        <x:v>91.7</x:v>
+      </x:c>
+      <x:c r="NW6" s="3" t="n">
+        <x:v>90.4</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:384">
+    <x:row r="7" spans="1:387">
       <x:c r="A7" s="2" t="s">
+        <x:v>390</x:v>
+      </x:c>
+      <x:c r="B7" s="2" t="s">
         <x:v>387</x:v>
-      </x:c>
-      <x:c r="B7" s="2" t="s">
-        <x:v>384</x:v>
       </x:c>
       <x:c r="C7" s="3" t="n">
         <x:v>53.1</x:v>
@@ -7363,7 +7415,7 @@
         <x:v>65.3</x:v>
       </x:c>
       <x:c r="MQ7" s="3" t="n">
-        <x:v>65.2</x:v>
+        <x:v>65.1</x:v>
       </x:c>
       <x:c r="MR7" s="3" t="n">
         <x:v>64.1</x:v>
@@ -7372,19 +7424,19 @@
         <x:v>64.4</x:v>
       </x:c>
       <x:c r="MT7" s="3" t="n">
-        <x:v>63</x:v>
+        <x:v>62.9</x:v>
       </x:c>
       <x:c r="MU7" s="3" t="n">
-        <x:v>61.3</x:v>
+        <x:v>61.2</x:v>
       </x:c>
       <x:c r="MV7" s="3" t="n">
-        <x:v>66.4</x:v>
+        <x:v>66.3</x:v>
       </x:c>
       <x:c r="MW7" s="3" t="n">
-        <x:v>69.7</x:v>
+        <x:v>69.6</x:v>
       </x:c>
       <x:c r="MX7" s="3" t="n">
-        <x:v>71.5</x:v>
+        <x:v>71.7</x:v>
       </x:c>
       <x:c r="MY7" s="3" t="n">
         <x:v>70.2</x:v>
@@ -7414,22 +7466,22 @@
         <x:v>73.3</x:v>
       </x:c>
       <x:c r="NH7" s="3" t="n">
-        <x:v>67.4</x:v>
+        <x:v>67.3</x:v>
       </x:c>
       <x:c r="NI7" s="3" t="n">
-        <x:v>70.3</x:v>
+        <x:v>70.2</x:v>
       </x:c>
       <x:c r="NJ7" s="3" t="n">
-        <x:v>72.5</x:v>
+        <x:v>72.6</x:v>
       </x:c>
       <x:c r="NK7" s="3" t="n">
-        <x:v>71.6</x:v>
+        <x:v>71.7</x:v>
       </x:c>
       <x:c r="NL7" s="3" t="n">
         <x:v>71.1</x:v>
       </x:c>
       <x:c r="NM7" s="3" t="n">
-        <x:v>72.4</x:v>
+        <x:v>72.5</x:v>
       </x:c>
       <x:c r="NN7" s="3" t="n">
         <x:v>71.9</x:v>
@@ -7441,21 +7493,30 @@
         <x:v>73.2</x:v>
       </x:c>
       <x:c r="NQ7" s="3" t="n">
-        <x:v>73.9</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="NR7" s="3" t="n">
         <x:v>79.3</x:v>
       </x:c>
       <x:c r="NS7" s="3" t="n">
-        <x:v>83</x:v>
+        <x:v>82.9</x:v>
       </x:c>
       <x:c r="NT7" s="3" t="n">
-        <x:v>75.9</x:v>
+        <x:v>75.8</x:v>
+      </x:c>
+      <x:c r="NU7" s="3" t="n">
+        <x:v>70.7</x:v>
+      </x:c>
+      <x:c r="NV7" s="3" t="n">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="NW7" s="3" t="n">
+        <x:v>70.6</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:384">
+    <x:row r="8" spans="1:387">
       <x:c r="B8" s="2" t="s">
-        <x:v>385</x:v>
+        <x:v>388</x:v>
       </x:c>
       <x:c r="C8" s="3" t="n">
         <x:v>55.5</x:v>
@@ -8603,10 +8664,19 @@
       <x:c r="NT8" s="3" t="n">
         <x:v>78.4</x:v>
       </x:c>
+      <x:c r="NU8" s="3" t="n">
+        <x:v>74.1</x:v>
+      </x:c>
+      <x:c r="NV8" s="3" t="n">
+        <x:v>80.1</x:v>
+      </x:c>
+      <x:c r="NW8" s="3" t="n">
+        <x:v>76.6</x:v>
+      </x:c>
     </x:row>
-    <x:row r="9" spans="1:384">
+    <x:row r="9" spans="1:387">
       <x:c r="B9" s="2" t="s">
-        <x:v>386</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="C9" s="3" t="n">
         <x:v>55.5</x:v>
@@ -9754,13 +9824,22 @@
       <x:c r="NT9" s="3" t="n">
         <x:v>78.4</x:v>
       </x:c>
+      <x:c r="NU9" s="3" t="n">
+        <x:v>74.1</x:v>
+      </x:c>
+      <x:c r="NV9" s="3" t="n">
+        <x:v>80.1</x:v>
+      </x:c>
+      <x:c r="NW9" s="3" t="n">
+        <x:v>76.6</x:v>
+      </x:c>
     </x:row>
-    <x:row r="10" spans="1:384">
+    <x:row r="10" spans="1:387">
       <x:c r="A10" s="2" t="s">
-        <x:v>388</x:v>
+        <x:v>391</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>384</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="C10" s="3" t="n">
         <x:v>90.8</x:v>
@@ -10879,39 +10958,48 @@
         <x:v>118.3</x:v>
       </x:c>
       <x:c r="NK10" s="3" t="n">
-        <x:v>120.3</x:v>
+        <x:v>120.8</x:v>
       </x:c>
       <x:c r="NL10" s="3" t="n">
-        <x:v>119.3</x:v>
+        <x:v>119.7</x:v>
       </x:c>
       <x:c r="NM10" s="3" t="n">
+        <x:v>121.4</x:v>
+      </x:c>
+      <x:c r="NN10" s="3" t="n">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="NO10" s="3" t="n">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="NP10" s="3" t="n">
+        <x:v>119.5</x:v>
+      </x:c>
+      <x:c r="NQ10" s="3" t="n">
+        <x:v>118.8</x:v>
+      </x:c>
+      <x:c r="NR10" s="3" t="n">
+        <x:v>118.7</x:v>
+      </x:c>
+      <x:c r="NS10" s="3" t="n">
+        <x:v>119.9</x:v>
+      </x:c>
+      <x:c r="NT10" s="3" t="n">
+        <x:v>118.6</x:v>
+      </x:c>
+      <x:c r="NU10" s="3" t="n">
+        <x:v>118.9</x:v>
+      </x:c>
+      <x:c r="NV10" s="3" t="n">
+        <x:v>116.8</x:v>
+      </x:c>
+      <x:c r="NW10" s="3" t="n">
         <x:v>120.8</x:v>
       </x:c>
-      <x:c r="NN10" s="3" t="n">
-        <x:v>118.3</x:v>
-      </x:c>
-      <x:c r="NO10" s="3" t="n">
-        <x:v>118.4</x:v>
-      </x:c>
-      <x:c r="NP10" s="3" t="n">
-        <x:v>118.9</x:v>
-      </x:c>
-      <x:c r="NQ10" s="3" t="n">
-        <x:v>118.1</x:v>
-      </x:c>
-      <x:c r="NR10" s="3" t="n">
-        <x:v>117.9</x:v>
-      </x:c>
-      <x:c r="NS10" s="3" t="n">
-        <x:v>119.2</x:v>
-      </x:c>
-      <x:c r="NT10" s="3" t="n">
-        <x:v>117.9</x:v>
-      </x:c>
     </x:row>
-    <x:row r="11" spans="1:384">
+    <x:row r="11" spans="1:387">
       <x:c r="B11" s="2" t="s">
-        <x:v>385</x:v>
+        <x:v>388</x:v>
       </x:c>
       <x:c r="C11" s="3" t="n">
         <x:v>93</x:v>
@@ -11964,13 +12052,13 @@
         <x:v>115.8</x:v>
       </x:c>
       <x:c r="MO11" s="3" t="n">
-        <x:v>120.5</x:v>
+        <x:v>120.7</x:v>
       </x:c>
       <x:c r="MP11" s="3" t="n">
-        <x:v>114.6</x:v>
+        <x:v>114.4</x:v>
       </x:c>
       <x:c r="MQ11" s="3" t="n">
-        <x:v>126.8</x:v>
+        <x:v>126.9</x:v>
       </x:c>
       <x:c r="MR11" s="3" t="n">
         <x:v>124.5</x:v>
@@ -12000,16 +12088,16 @@
         <x:v>116.2</x:v>
       </x:c>
       <x:c r="NA11" s="3" t="n">
-        <x:v>119.2</x:v>
+        <x:v>119.4</x:v>
       </x:c>
       <x:c r="NB11" s="3" t="n">
-        <x:v>109</x:v>
+        <x:v>108.9</x:v>
       </x:c>
       <x:c r="NC11" s="3" t="n">
         <x:v>117.2</x:v>
       </x:c>
       <x:c r="ND11" s="3" t="n">
-        <x:v>115.9</x:v>
+        <x:v>115.8</x:v>
       </x:c>
       <x:c r="NE11" s="3" t="n">
         <x:v>84.3</x:v>
@@ -12030,39 +12118,48 @@
         <x:v>108.5</x:v>
       </x:c>
       <x:c r="NK11" s="3" t="n">
-        <x:v>123.4</x:v>
+        <x:v>123.9</x:v>
       </x:c>
       <x:c r="NL11" s="3" t="n">
-        <x:v>116.2</x:v>
+        <x:v>116.6</x:v>
       </x:c>
       <x:c r="NM11" s="3" t="n">
-        <x:v>123.8</x:v>
+        <x:v>124.6</x:v>
       </x:c>
       <x:c r="NN11" s="3" t="n">
-        <x:v>113.3</x:v>
+        <x:v>113.7</x:v>
       </x:c>
       <x:c r="NO11" s="3" t="n">
-        <x:v>125.2</x:v>
+        <x:v>125.9</x:v>
       </x:c>
       <x:c r="NP11" s="3" t="n">
-        <x:v>124.4</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="NQ11" s="3" t="n">
-        <x:v>88.5</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="NR11" s="3" t="n">
-        <x:v>118.7</x:v>
+        <x:v>119.5</x:v>
       </x:c>
       <x:c r="NS11" s="3" t="n">
-        <x:v>128</x:v>
+        <x:v>128.8</x:v>
       </x:c>
       <x:c r="NT11" s="3" t="n">
-        <x:v>129.6</x:v>
+        <x:v>130.3</x:v>
+      </x:c>
+      <x:c r="NU11" s="3" t="n">
+        <x:v>127.1</x:v>
+      </x:c>
+      <x:c r="NV11" s="3" t="n">
+        <x:v>107.1</x:v>
+      </x:c>
+      <x:c r="NW11" s="3" t="n">
+        <x:v>124</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:384">
+    <x:row r="12" spans="1:387">
       <x:c r="B12" s="2" t="s">
-        <x:v>386</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="C12" s="3" t="n">
         <x:v>93.1</x:v>
@@ -13181,42 +13278,51 @@
         <x:v>109.5</x:v>
       </x:c>
       <x:c r="NK12" s="3" t="n">
-        <x:v>116.1</x:v>
+        <x:v>116.6</x:v>
       </x:c>
       <x:c r="NL12" s="3" t="n">
-        <x:v>115.3</x:v>
+        <x:v>115.7</x:v>
       </x:c>
       <x:c r="NM12" s="3" t="n">
-        <x:v>125.6</x:v>
+        <x:v>126.2</x:v>
       </x:c>
       <x:c r="NN12" s="3" t="n">
-        <x:v>116</x:v>
+        <x:v>116.6</x:v>
       </x:c>
       <x:c r="NO12" s="3" t="n">
-        <x:v>113.7</x:v>
+        <x:v>114.3</x:v>
       </x:c>
       <x:c r="NP12" s="3" t="n">
-        <x:v>127.6</x:v>
+        <x:v>128.3</x:v>
       </x:c>
       <x:c r="NQ12" s="3" t="n">
-        <x:v>88.6</x:v>
+        <x:v>89.1</x:v>
       </x:c>
       <x:c r="NR12" s="3" t="n">
-        <x:v>117.8</x:v>
+        <x:v>118.6</x:v>
       </x:c>
       <x:c r="NS12" s="3" t="n">
-        <x:v>130.5</x:v>
+        <x:v>131.3</x:v>
       </x:c>
       <x:c r="NT12" s="3" t="n">
-        <x:v>125.1</x:v>
+        <x:v>125.8</x:v>
+      </x:c>
+      <x:c r="NU12" s="3" t="n">
+        <x:v>129.1</x:v>
+      </x:c>
+      <x:c r="NV12" s="3" t="n">
+        <x:v>109.4</x:v>
+      </x:c>
+      <x:c r="NW12" s="3" t="n">
+        <x:v>119.1</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:384">
+    <x:row r="13" spans="1:387">
       <x:c r="A13" s="2" t="s">
-        <x:v>389</x:v>
+        <x:v>392</x:v>
       </x:c>
       <x:c r="B13" s="2" t="s">
-        <x:v>384</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="C13" s="3" t="n">
         <x:v>105.9</x:v>
@@ -14263,22 +14369,22 @@
         <x:v>126.4</x:v>
       </x:c>
       <x:c r="MM13" s="3" t="n">
-        <x:v>126.9</x:v>
+        <x:v>127.2</x:v>
       </x:c>
       <x:c r="MN13" s="3" t="n">
-        <x:v>141.2</x:v>
+        <x:v>141.3</x:v>
       </x:c>
       <x:c r="MO13" s="3" t="n">
-        <x:v>131.1</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="MP13" s="3" t="n">
-        <x:v>119</x:v>
+        <x:v>118.7</x:v>
       </x:c>
       <x:c r="MQ13" s="3" t="n">
-        <x:v>120.7</x:v>
+        <x:v>120.6</x:v>
       </x:c>
       <x:c r="MR13" s="3" t="n">
-        <x:v>117.3</x:v>
+        <x:v>117.2</x:v>
       </x:c>
       <x:c r="MS13" s="3" t="n">
         <x:v>150.5</x:v>
@@ -14287,34 +14393,34 @@
         <x:v>134.6</x:v>
       </x:c>
       <x:c r="MU13" s="3" t="n">
-        <x:v>133.5</x:v>
+        <x:v>133.6</x:v>
       </x:c>
       <x:c r="MV13" s="3" t="n">
-        <x:v>126.9</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="MW13" s="3" t="n">
         <x:v>130.4</x:v>
       </x:c>
       <x:c r="MX13" s="3" t="n">
-        <x:v>140.8</x:v>
+        <x:v>140.7</x:v>
       </x:c>
       <x:c r="MY13" s="3" t="n">
-        <x:v>112.7</x:v>
+        <x:v>113.1</x:v>
       </x:c>
       <x:c r="MZ13" s="3" t="n">
-        <x:v>130.6</x:v>
+        <x:v>130.7</x:v>
       </x:c>
       <x:c r="NA13" s="3" t="n">
         <x:v>145</x:v>
       </x:c>
       <x:c r="NB13" s="3" t="n">
-        <x:v>131.7</x:v>
+        <x:v>131.4</x:v>
       </x:c>
       <x:c r="NC13" s="3" t="n">
-        <x:v>127.3</x:v>
+        <x:v>127.2</x:v>
       </x:c>
       <x:c r="ND13" s="3" t="n">
-        <x:v>116.9</x:v>
+        <x:v>116.7</x:v>
       </x:c>
       <x:c r="NE13" s="3" t="n">
         <x:v>116.7</x:v>
@@ -14323,51 +14429,60 @@
         <x:v>129.3</x:v>
       </x:c>
       <x:c r="NG13" s="3" t="n">
-        <x:v>118.3</x:v>
+        <x:v>118.4</x:v>
       </x:c>
       <x:c r="NH13" s="3" t="n">
-        <x:v>116.9</x:v>
+        <x:v>117.1</x:v>
       </x:c>
       <x:c r="NI13" s="3" t="n">
-        <x:v>136.4</x:v>
+        <x:v>136.3</x:v>
       </x:c>
       <x:c r="NJ13" s="3" t="n">
-        <x:v>149.2</x:v>
+        <x:v>148.8</x:v>
       </x:c>
       <x:c r="NK13" s="3" t="n">
-        <x:v>99.8</x:v>
+        <x:v>124.5</x:v>
       </x:c>
       <x:c r="NL13" s="3" t="n">
-        <x:v>90.5</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="NM13" s="3" t="n">
-        <x:v>98.1</x:v>
+        <x:v>123.2</x:v>
       </x:c>
       <x:c r="NN13" s="3" t="n">
-        <x:v>110</x:v>
+        <x:v>136.5</x:v>
       </x:c>
       <x:c r="NO13" s="3" t="n">
-        <x:v>102.1</x:v>
+        <x:v>127.6</x:v>
       </x:c>
       <x:c r="NP13" s="3" t="n">
-        <x:v>96.1</x:v>
+        <x:v>121.7</x:v>
       </x:c>
       <x:c r="NQ13" s="3" t="n">
-        <x:v>103.1</x:v>
+        <x:v>129.3</x:v>
       </x:c>
       <x:c r="NR13" s="3" t="n">
-        <x:v>91.5</x:v>
+        <x:v>120.4</x:v>
       </x:c>
       <x:c r="NS13" s="3" t="n">
-        <x:v>106.1</x:v>
+        <x:v>134.9</x:v>
       </x:c>
       <x:c r="NT13" s="3" t="n">
-        <x:v>101.8</x:v>
+        <x:v>127.8</x:v>
+      </x:c>
+      <x:c r="NU13" s="3" t="n">
+        <x:v>138.8</x:v>
+      </x:c>
+      <x:c r="NV13" s="3" t="n">
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="NW13" s="3" t="n">
+        <x:v>138.4</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:384">
+    <x:row r="14" spans="1:387">
       <x:c r="B14" s="2" t="s">
-        <x:v>385</x:v>
+        <x:v>388</x:v>
       </x:c>
       <x:c r="C14" s="3" t="n">
         <x:v>100.2</x:v>
@@ -15420,10 +15535,10 @@
         <x:v>126.2</x:v>
       </x:c>
       <x:c r="MO14" s="3" t="n">
-        <x:v>127.7</x:v>
+        <x:v>127.9</x:v>
       </x:c>
       <x:c r="MP14" s="3" t="n">
-        <x:v>111.2</x:v>
+        <x:v>111.1</x:v>
       </x:c>
       <x:c r="MQ14" s="3" t="n">
         <x:v>128.4</x:v>
@@ -15447,7 +15562,7 @@
         <x:v>134.9</x:v>
       </x:c>
       <x:c r="MX14" s="3" t="n">
-        <x:v>111.7</x:v>
+        <x:v>111.8</x:v>
       </x:c>
       <x:c r="MY14" s="3" t="n">
         <x:v>107.6</x:v>
@@ -15456,10 +15571,10 @@
         <x:v>116.7</x:v>
       </x:c>
       <x:c r="NA14" s="3" t="n">
-        <x:v>141.8</x:v>
+        <x:v>141.9</x:v>
       </x:c>
       <x:c r="NB14" s="3" t="n">
-        <x:v>123</x:v>
+        <x:v>122.8</x:v>
       </x:c>
       <x:c r="NC14" s="3" t="n">
         <x:v>135.9</x:v>
@@ -15486,39 +15601,48 @@
         <x:v>119.5</x:v>
       </x:c>
       <x:c r="NK14" s="3" t="n">
-        <x:v>94.6</x:v>
+        <x:v>117.4</x:v>
       </x:c>
       <x:c r="NL14" s="3" t="n">
-        <x:v>80.6</x:v>
+        <x:v>96.1</x:v>
       </x:c>
       <x:c r="NM14" s="3" t="n">
-        <x:v>95.9</x:v>
+        <x:v>120.5</x:v>
       </x:c>
       <x:c r="NN14" s="3" t="n">
-        <x:v>103.2</x:v>
+        <x:v>128.2</x:v>
       </x:c>
       <x:c r="NO14" s="3" t="n">
-        <x:v>109.4</x:v>
+        <x:v>136.9</x:v>
       </x:c>
       <x:c r="NP14" s="3" t="n">
-        <x:v>109.3</x:v>
+        <x:v>138.8</x:v>
       </x:c>
       <x:c r="NQ14" s="3" t="n">
-        <x:v>86</x:v>
+        <x:v>107.9</x:v>
       </x:c>
       <x:c r="NR14" s="3" t="n">
-        <x:v>98.7</x:v>
+        <x:v>129.8</x:v>
       </x:c>
       <x:c r="NS14" s="3" t="n">
-        <x:v>120</x:v>
+        <x:v>152.4</x:v>
       </x:c>
       <x:c r="NT14" s="3" t="n">
-        <x:v>117.5</x:v>
+        <x:v>147.2</x:v>
+      </x:c>
+      <x:c r="NU14" s="3" t="n">
+        <x:v>144.7</x:v>
+      </x:c>
+      <x:c r="NV14" s="3" t="n">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="NW14" s="3" t="n">
+        <x:v>129.5</x:v>
       </x:c>
     </x:row>
-    <x:row r="15" spans="1:384">
+    <x:row r="15" spans="1:387">
       <x:c r="B15" s="2" t="s">
-        <x:v>386</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="C15" s="3" t="n">
         <x:v>103.5</x:v>
@@ -16637,42 +16761,51 @@
         <x:v>126.1</x:v>
       </x:c>
       <x:c r="NK15" s="3" t="n">
-        <x:v>89.2</x:v>
+        <x:v>110.7</x:v>
       </x:c>
       <x:c r="NL15" s="3" t="n">
-        <x:v>79.4</x:v>
+        <x:v>94.7</x:v>
       </x:c>
       <x:c r="NM15" s="3" t="n">
-        <x:v>101.8</x:v>
+        <x:v>127.8</x:v>
       </x:c>
       <x:c r="NN15" s="3" t="n">
-        <x:v>101</x:v>
+        <x:v>125.6</x:v>
       </x:c>
       <x:c r="NO15" s="3" t="n">
-        <x:v>101.3</x:v>
+        <x:v>126.7</x:v>
       </x:c>
       <x:c r="NP15" s="3" t="n">
-        <x:v>113.2</x:v>
+        <x:v>143.7</x:v>
       </x:c>
       <x:c r="NQ15" s="3" t="n">
-        <x:v>86.2</x:v>
+        <x:v>108.1</x:v>
       </x:c>
       <x:c r="NR15" s="3" t="n">
-        <x:v>99.1</x:v>
+        <x:v>130.3</x:v>
       </x:c>
       <x:c r="NS15" s="3" t="n">
-        <x:v>120</x:v>
+        <x:v>152.4</x:v>
       </x:c>
       <x:c r="NT15" s="3" t="n">
-        <x:v>114.3</x:v>
+        <x:v>143.2</x:v>
+      </x:c>
+      <x:c r="NU15" s="3" t="n">
+        <x:v>148.7</x:v>
+      </x:c>
+      <x:c r="NV15" s="3" t="n">
+        <x:v>110.2</x:v>
+      </x:c>
+      <x:c r="NW15" s="3" t="n">
+        <x:v>122.3</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="1:384">
+    <x:row r="16" spans="1:387">
       <x:c r="A16" s="2" t="s">
-        <x:v>390</x:v>
+        <x:v>393</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
-        <x:v>384</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="C16" s="3" t="n">
         <x:v>90.6</x:v>
@@ -17740,7 +17873,7 @@
         <x:v>120.1</x:v>
       </x:c>
       <x:c r="MT16" s="3" t="n">
-        <x:v>118.8</x:v>
+        <x:v>118.9</x:v>
       </x:c>
       <x:c r="MU16" s="3" t="n">
         <x:v>119.5</x:v>
@@ -17755,7 +17888,7 @@
         <x:v>119.2</x:v>
       </x:c>
       <x:c r="MY16" s="3" t="n">
-        <x:v>119.6</x:v>
+        <x:v>119.5</x:v>
       </x:c>
       <x:c r="MZ16" s="3" t="n">
         <x:v>119.1</x:v>
@@ -17820,10 +17953,19 @@
       <x:c r="NT16" s="3" t="n">
         <x:v>118.4</x:v>
       </x:c>
+      <x:c r="NU16" s="3" t="n">
+        <x:v>118.4</x:v>
+      </x:c>
+      <x:c r="NV16" s="3" t="n">
+        <x:v>116.5</x:v>
+      </x:c>
+      <x:c r="NW16" s="3" t="n">
+        <x:v>120.4</x:v>
+      </x:c>
     </x:row>
-    <x:row r="17" spans="1:384">
+    <x:row r="17" spans="1:387">
       <x:c r="B17" s="2" t="s">
-        <x:v>385</x:v>
+        <x:v>388</x:v>
       </x:c>
       <x:c r="C17" s="3" t="n">
         <x:v>93</x:v>
@@ -18876,16 +19018,16 @@
         <x:v>115.5</x:v>
       </x:c>
       <x:c r="MO17" s="3" t="n">
-        <x:v>120.4</x:v>
+        <x:v>120.5</x:v>
       </x:c>
       <x:c r="MP17" s="3" t="n">
-        <x:v>114.6</x:v>
+        <x:v>114.4</x:v>
       </x:c>
       <x:c r="MQ17" s="3" t="n">
-        <x:v>127</x:v>
+        <x:v>127.1</x:v>
       </x:c>
       <x:c r="MR17" s="3" t="n">
-        <x:v>124.2</x:v>
+        <x:v>124.1</x:v>
       </x:c>
       <x:c r="MS17" s="3" t="n">
         <x:v>89.5</x:v>
@@ -18912,13 +19054,13 @@
         <x:v>116.2</x:v>
       </x:c>
       <x:c r="NA17" s="3" t="n">
-        <x:v>118.7</x:v>
+        <x:v>118.9</x:v>
       </x:c>
       <x:c r="NB17" s="3" t="n">
-        <x:v>108.7</x:v>
+        <x:v>108.5</x:v>
       </x:c>
       <x:c r="NC17" s="3" t="n">
-        <x:v>116.8</x:v>
+        <x:v>116.9</x:v>
       </x:c>
       <x:c r="ND17" s="3" t="n">
         <x:v>115.4</x:v>
@@ -18948,16 +19090,16 @@
         <x:v>117.1</x:v>
       </x:c>
       <x:c r="NM17" s="3" t="n">
-        <x:v>124.3</x:v>
+        <x:v>124.5</x:v>
       </x:c>
       <x:c r="NN17" s="3" t="n">
-        <x:v>113.8</x:v>
+        <x:v>113.6</x:v>
       </x:c>
       <x:c r="NO17" s="3" t="n">
-        <x:v>125.7</x:v>
+        <x:v>125.8</x:v>
       </x:c>
       <x:c r="NP17" s="3" t="n">
-        <x:v>124.8</x:v>
+        <x:v>124.7</x:v>
       </x:c>
       <x:c r="NQ17" s="3" t="n">
         <x:v>88.6</x:v>
@@ -18971,10 +19113,19 @@
       <x:c r="NT17" s="3" t="n">
         <x:v>129.9</x:v>
       </x:c>
+      <x:c r="NU17" s="3" t="n">
+        <x:v>126.6</x:v>
+      </x:c>
+      <x:c r="NV17" s="3" t="n">
+        <x:v>107.2</x:v>
+      </x:c>
+      <x:c r="NW17" s="3" t="n">
+        <x:v>124</x:v>
+      </x:c>
     </x:row>
-    <x:row r="18" spans="1:384">
+    <x:row r="18" spans="1:387">
       <x:c r="B18" s="2" t="s">
-        <x:v>386</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="C18" s="3" t="n">
         <x:v>92.9</x:v>
@@ -20122,13 +20273,22 @@
       <x:c r="NT18" s="3" t="n">
         <x:v>125.4</x:v>
       </x:c>
+      <x:c r="NU18" s="3" t="n">
+        <x:v>128.6</x:v>
+      </x:c>
+      <x:c r="NV18" s="3" t="n">
+        <x:v>109.4</x:v>
+      </x:c>
+      <x:c r="NW18" s="3" t="n">
+        <x:v>119.1</x:v>
+      </x:c>
     </x:row>
-    <x:row r="19" spans="1:384">
+    <x:row r="19" spans="1:387">
       <x:c r="A19" s="2" t="s">
-        <x:v>391</x:v>
+        <x:v>394</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
-        <x:v>384</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="C19" s="3" t="n">
         <x:v>88.6</x:v>
@@ -21175,111 +21335,120 @@
         <x:v>105.1</x:v>
       </x:c>
       <x:c r="MM19" s="3" t="n">
-        <x:v>104</x:v>
+        <x:v>104.1</x:v>
       </x:c>
       <x:c r="MN19" s="3" t="n">
         <x:v>95.2</x:v>
       </x:c>
       <x:c r="MO19" s="3" t="n">
-        <x:v>92.9</x:v>
+        <x:v>92.8</x:v>
       </x:c>
       <x:c r="MP19" s="3" t="n">
-        <x:v>98.1</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="MQ19" s="3" t="n">
-        <x:v>99.7</x:v>
+        <x:v>99.6</x:v>
       </x:c>
       <x:c r="MR19" s="3" t="n">
-        <x:v>99.1</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="MS19" s="3" t="n">
-        <x:v>103.7</x:v>
+        <x:v>103.5</x:v>
       </x:c>
       <x:c r="MT19" s="3" t="n">
-        <x:v>101.6</x:v>
+        <x:v>101.5</x:v>
       </x:c>
       <x:c r="MU19" s="3" t="n">
         <x:v>105.4</x:v>
       </x:c>
       <x:c r="MV19" s="3" t="n">
-        <x:v>100.7</x:v>
+        <x:v>100.8</x:v>
       </x:c>
       <x:c r="MW19" s="3" t="n">
-        <x:v>102.1</x:v>
+        <x:v>102.2</x:v>
       </x:c>
       <x:c r="MX19" s="3" t="n">
-        <x:v>94.4</x:v>
+        <x:v>94.5</x:v>
       </x:c>
       <x:c r="MY19" s="3" t="n">
-        <x:v>93.9</x:v>
+        <x:v>94.1</x:v>
       </x:c>
       <x:c r="MZ19" s="3" t="n">
-        <x:v>102.8</x:v>
+        <x:v>102.9</x:v>
       </x:c>
       <x:c r="NA19" s="3" t="n">
-        <x:v>116.1</x:v>
+        <x:v>115.9</x:v>
       </x:c>
       <x:c r="NB19" s="3" t="n">
-        <x:v>123.7</x:v>
+        <x:v>123.5</x:v>
       </x:c>
       <x:c r="NC19" s="3" t="n">
-        <x:v>123.3</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="ND19" s="3" t="n">
-        <x:v>111.2</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="NE19" s="3" t="n">
-        <x:v>119.4</x:v>
+        <x:v>119.2</x:v>
       </x:c>
       <x:c r="NF19" s="3" t="n">
-        <x:v>116.4</x:v>
+        <x:v>116.2</x:v>
       </x:c>
       <x:c r="NG19" s="3" t="n">
         <x:v>115.4</x:v>
       </x:c>
       <x:c r="NH19" s="3" t="n">
-        <x:v>119.7</x:v>
+        <x:v>119.8</x:v>
       </x:c>
       <x:c r="NI19" s="3" t="n">
-        <x:v>105</x:v>
+        <x:v>105.2</x:v>
       </x:c>
       <x:c r="NJ19" s="3" t="n">
-        <x:v>122.1</x:v>
+        <x:v>122.2</x:v>
       </x:c>
       <x:c r="NK19" s="3" t="n">
-        <x:v>124.5</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="NL19" s="3" t="n">
         <x:v>117.6</x:v>
       </x:c>
       <x:c r="NM19" s="3" t="n">
-        <x:v>113</x:v>
+        <x:v>112.8</x:v>
       </x:c>
       <x:c r="NN19" s="3" t="n">
-        <x:v>123.1</x:v>
+        <x:v>122.9</x:v>
       </x:c>
       <x:c r="NO19" s="3" t="n">
-        <x:v>123</x:v>
+        <x:v>122.8</x:v>
       </x:c>
       <x:c r="NP19" s="3" t="n">
-        <x:v>119.6</x:v>
+        <x:v>119.3</x:v>
       </x:c>
       <x:c r="NQ19" s="3" t="n">
-        <x:v>116.1</x:v>
+        <x:v>115.8</x:v>
       </x:c>
       <x:c r="NR19" s="3" t="n">
-        <x:v>104</x:v>
+        <x:v>103.8</x:v>
       </x:c>
       <x:c r="NS19" s="3" t="n">
         <x:v>107.1</x:v>
       </x:c>
       <x:c r="NT19" s="3" t="n">
-        <x:v>106.2</x:v>
+        <x:v>106.3</x:v>
+      </x:c>
+      <x:c r="NU19" s="3" t="n">
+        <x:v>113.5</x:v>
+      </x:c>
+      <x:c r="NV19" s="3" t="n">
+        <x:v>123.4</x:v>
+      </x:c>
+      <x:c r="NW19" s="3" t="n">
+        <x:v>107.6</x:v>
       </x:c>
     </x:row>
-    <x:row r="20" spans="1:384">
+    <x:row r="20" spans="1:387">
       <x:c r="B20" s="2" t="s">
-        <x:v>385</x:v>
+        <x:v>388</x:v>
       </x:c>
       <x:c r="C20" s="3" t="n">
         <x:v>106</x:v>
@@ -22427,10 +22596,19 @@
       <x:c r="NT20" s="3" t="n">
         <x:v>109.1</x:v>
       </x:c>
+      <x:c r="NU20" s="3" t="n">
+        <x:v>128.6</x:v>
+      </x:c>
+      <x:c r="NV20" s="3" t="n">
+        <x:v>145.2</x:v>
+      </x:c>
+      <x:c r="NW20" s="3" t="n">
+        <x:v>135.5</x:v>
+      </x:c>
     </x:row>
-    <x:row r="21" spans="1:384">
+    <x:row r="21" spans="1:387">
       <x:c r="B21" s="2" t="s">
-        <x:v>386</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="C21" s="3" t="n">
         <x:v>106</x:v>
@@ -23578,733 +23756,742 @@
       <x:c r="NT21" s="3" t="n">
         <x:v>109.1</x:v>
       </x:c>
+      <x:c r="NU21" s="3" t="n">
+        <x:v>128.6</x:v>
+      </x:c>
+      <x:c r="NV21" s="3" t="n">
+        <x:v>145.2</x:v>
+      </x:c>
+      <x:c r="NW21" s="3" t="n">
+        <x:v>135.5</x:v>
+      </x:c>
     </x:row>
-    <x:row r="22" spans="1:384">
+    <x:row r="22" spans="1:387">
       <x:c r="A22" s="2" t="s">
-        <x:v>392</x:v>
+        <x:v>395</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
-        <x:v>384</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="C22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="D22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="E22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="F22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="G22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="H22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="I22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="J22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="K22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="L22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="M22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="N22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="O22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="P22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="Q22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="R22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="S22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="T22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="U22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="V22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="W22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="X22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="Y22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="Z22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="AA22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="AB22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="AC22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="AD22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="AE22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="AF22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="AG22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="AH22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="AI22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="AJ22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="AK22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="AL22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="AM22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="AN22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="AO22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="AP22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="AQ22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="AR22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="AS22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="AT22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="AU22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="AV22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="AW22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="AX22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="AY22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="AZ22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="BA22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="BB22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="BC22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="BD22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="BE22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="BF22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="BG22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="BH22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="BI22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="BJ22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="BK22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="BL22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="BM22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="BN22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="BO22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="BP22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="BQ22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="BR22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="BS22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="BT22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="BU22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="BV22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="BW22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="BX22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="BY22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="BZ22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="CA22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="CB22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="CC22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="CD22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="CE22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="CF22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="CG22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="CH22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="CI22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="CJ22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="CK22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="CL22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="CM22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="CN22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="CO22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="CP22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="CQ22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="CR22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="CS22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="CT22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="CU22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="CV22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="CW22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="CX22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="CY22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="CZ22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="DA22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="DB22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="DC22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="DD22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="DE22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="DF22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="DG22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="DH22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="DI22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="DJ22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="DK22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="DL22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="DM22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="DN22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="DO22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="DP22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="DQ22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="DR22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="DS22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="DT22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="DU22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="DV22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="DW22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="DX22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="DY22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="DZ22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="EA22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="EB22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="EC22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="ED22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="EE22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="EF22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="EG22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="EH22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="EI22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="EJ22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="EK22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="EL22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="EM22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="EN22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="EO22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="EP22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="EQ22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="ER22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="ES22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="ET22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="EU22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="EV22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="EW22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="EX22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="EY22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="EZ22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="FA22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="FB22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="FC22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="FD22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="FE22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="FF22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="FG22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="FH22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="FI22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="FJ22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="FK22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="FL22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="FM22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="FN22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="FO22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="FP22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="FQ22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="FR22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="FS22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="FT22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="FU22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="FV22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="FW22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="FX22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="FY22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="FZ22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="GA22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="GB22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="GC22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="GD22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="GE22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="GF22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="GG22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="GH22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="GI22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="GJ22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="GK22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="GL22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="GM22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="GN22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="GO22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="GP22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="GQ22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="GR22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="GS22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="GT22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="GU22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="GV22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="GW22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="GX22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="GY22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="GZ22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="HA22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="HB22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="HC22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="HD22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="HE22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="HF22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="HG22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="HH22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="HI22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="HJ22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="HK22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="HL22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="HM22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="HN22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="HO22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="HP22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="HQ22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="HR22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="HS22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="HT22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="HU22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="HV22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="HW22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="HX22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="HY22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="HZ22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="IA22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="IB22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="IC22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="ID22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="IE22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="IF22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="IG22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="IH22" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="II22" s="3" t="n">
         <x:v>144.1</x:v>
@@ -24646,10 +24833,10 @@
         <x:v>176</x:v>
       </x:c>
       <x:c r="MR22" s="3" t="n">
-        <x:v>174</x:v>
+        <x:v>174.1</x:v>
       </x:c>
       <x:c r="MS22" s="3" t="n">
-        <x:v>180.1</x:v>
+        <x:v>180.2</x:v>
       </x:c>
       <x:c r="MT22" s="3" t="n">
         <x:v>172.2</x:v>
@@ -24664,16 +24851,16 @@
         <x:v>183.3</x:v>
       </x:c>
       <x:c r="MX22" s="3" t="n">
-        <x:v>185</x:v>
+        <x:v>185.1</x:v>
       </x:c>
       <x:c r="MY22" s="3" t="n">
-        <x:v>181.6</x:v>
+        <x:v>181.5</x:v>
       </x:c>
       <x:c r="MZ22" s="3" t="n">
         <x:v>184.6</x:v>
       </x:c>
       <x:c r="NA22" s="3" t="n">
-        <x:v>164.5</x:v>
+        <x:v>164.4</x:v>
       </x:c>
       <x:c r="NB22" s="3" t="n">
         <x:v>161.2</x:v>
@@ -24685,10 +24872,10 @@
         <x:v>154.8</x:v>
       </x:c>
       <x:c r="NE22" s="3" t="n">
-        <x:v>154.2</x:v>
+        <x:v>154.3</x:v>
       </x:c>
       <x:c r="NF22" s="3" t="n">
-        <x:v>160.9</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="NG22" s="3" t="n">
         <x:v>163.9</x:v>
@@ -24700,13 +24887,13 @@
         <x:v>168.8</x:v>
       </x:c>
       <x:c r="NJ22" s="3" t="n">
-        <x:v>166.7</x:v>
+        <x:v>166.8</x:v>
       </x:c>
       <x:c r="NK22" s="3" t="n">
-        <x:v>168.1</x:v>
+        <x:v>167.9</x:v>
       </x:c>
       <x:c r="NL22" s="3" t="n">
-        <x:v>169.5</x:v>
+        <x:v>169.4</x:v>
       </x:c>
       <x:c r="NM22" s="3" t="n">
         <x:v>169.1</x:v>
@@ -24715,747 +24902,756 @@
         <x:v>168.8</x:v>
       </x:c>
       <x:c r="NO22" s="3" t="n">
-        <x:v>166.4</x:v>
+        <x:v>166.5</x:v>
       </x:c>
       <x:c r="NP22" s="3" t="n">
-        <x:v>168.6</x:v>
+        <x:v>168.7</x:v>
       </x:c>
       <x:c r="NQ22" s="3" t="n">
         <x:v>166.2</x:v>
       </x:c>
       <x:c r="NR22" s="3" t="n">
-        <x:v>159.9</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="NS22" s="3" t="n">
         <x:v>167.6</x:v>
       </x:c>
       <x:c r="NT22" s="3" t="n">
-        <x:v>169.2</x:v>
+        <x:v>169.1</x:v>
+      </x:c>
+      <x:c r="NU22" s="3" t="n">
+        <x:v>168.2</x:v>
+      </x:c>
+      <x:c r="NV22" s="3" t="n">
+        <x:v>173.7</x:v>
+      </x:c>
+      <x:c r="NW22" s="3" t="n">
+        <x:v>172.6</x:v>
       </x:c>
     </x:row>
-    <x:row r="23" spans="1:384">
+    <x:row r="23" spans="1:387">
       <x:c r="B23" s="2" t="s">
-        <x:v>385</x:v>
+        <x:v>388</x:v>
       </x:c>
       <x:c r="C23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="D23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="E23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="F23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="G23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="H23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="I23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="J23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="K23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="L23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="M23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="N23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="O23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="P23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="Q23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="R23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="S23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="T23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="U23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="V23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="W23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="X23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="Y23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="Z23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="AA23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="AB23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="AC23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="AD23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="AE23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="AF23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="AG23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="AH23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="AI23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="AJ23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="AK23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="AL23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="AM23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="AN23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="AO23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="AP23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="AQ23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="AR23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="AS23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="AT23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="AU23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="AV23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="AW23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="AX23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="AY23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="AZ23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="BA23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="BB23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="BC23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="BD23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="BE23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="BF23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="BG23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="BH23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="BI23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="BJ23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="BK23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="BL23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="BM23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="BN23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="BO23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="BP23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="BQ23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="BR23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="BS23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="BT23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="BU23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="BV23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="BW23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="BX23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="BY23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="BZ23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="CA23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="CB23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="CC23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="CD23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="CE23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="CF23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="CG23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="CH23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="CI23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="CJ23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="CK23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="CL23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="CM23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="CN23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="CO23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="CP23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="CQ23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="CR23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="CS23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="CT23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="CU23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="CV23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="CW23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="CX23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="CY23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="CZ23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="DA23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="DB23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="DC23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="DD23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="DE23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="DF23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="DG23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="DH23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="DI23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="DJ23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="DK23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="DL23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="DM23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="DN23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="DO23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="DP23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="DQ23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="DR23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="DS23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="DT23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="DU23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="DV23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="DW23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="DX23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="DY23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="DZ23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="EA23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="EB23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="EC23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="ED23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="EE23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="EF23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="EG23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="EH23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="EI23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="EJ23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="EK23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="EL23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="EM23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="EN23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="EO23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="EP23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="EQ23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="ER23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="ES23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="ET23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="EU23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="EV23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="EW23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="EX23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="EY23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="EZ23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="FA23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="FB23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="FC23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="FD23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="FE23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="FF23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="FG23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="FH23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="FI23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="FJ23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="FK23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="FL23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="FM23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="FN23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="FO23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="FP23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="FQ23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="FR23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="FS23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="FT23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="FU23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="FV23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="FW23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="FX23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="FY23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="FZ23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="GA23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="GB23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="GC23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="GD23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="GE23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="GF23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="GG23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="GH23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="GI23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="GJ23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="GK23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="GL23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="GM23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="GN23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="GO23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="GP23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="GQ23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="GR23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="GS23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="GT23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="GU23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="GV23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="GW23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="GX23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="GY23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="GZ23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="HA23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="HB23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="HC23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="HD23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="HE23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="HF23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="HG23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="HH23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="HI23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="HJ23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="HK23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="HL23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="HM23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="HN23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="HO23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="HP23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="HQ23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="HR23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="HS23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="HT23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="HU23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="HV23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="HW23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="HX23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="HY23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="HZ23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="IA23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="IB23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="IC23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="ID23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="IE23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="IF23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="IG23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="IH23" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="II23" s="3" t="n">
         <x:v>149.3</x:v>
@@ -25788,16 +25984,16 @@
         <x:v>166.9</x:v>
       </x:c>
       <x:c r="MO23" s="3" t="n">
-        <x:v>174.6</x:v>
+        <x:v>174.9</x:v>
       </x:c>
       <x:c r="MP23" s="3" t="n">
-        <x:v>168.3</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="MQ23" s="3" t="n">
-        <x:v>196.7</x:v>
+        <x:v>196.8</x:v>
       </x:c>
       <x:c r="MR23" s="3" t="n">
-        <x:v>182.3</x:v>
+        <x:v>182.2</x:v>
       </x:c>
       <x:c r="MS23" s="3" t="n">
         <x:v>134.8</x:v>
@@ -25824,10 +26020,10 @@
         <x:v>183.1</x:v>
       </x:c>
       <x:c r="NA23" s="3" t="n">
-        <x:v>170.5</x:v>
+        <x:v>170.7</x:v>
       </x:c>
       <x:c r="NB23" s="3" t="n">
-        <x:v>154.9</x:v>
+        <x:v>154.7</x:v>
       </x:c>
       <x:c r="NC23" s="3" t="n">
         <x:v>165.7</x:v>
@@ -25860,13 +26056,13 @@
         <x:v>168.7</x:v>
       </x:c>
       <x:c r="NM23" s="3" t="n">
-        <x:v>175</x:v>
+        <x:v>175.3</x:v>
       </x:c>
       <x:c r="NN23" s="3" t="n">
-        <x:v>162.1</x:v>
+        <x:v>161.9</x:v>
       </x:c>
       <x:c r="NO23" s="3" t="n">
-        <x:v>186.2</x:v>
+        <x:v>186.3</x:v>
       </x:c>
       <x:c r="NP23" s="3" t="n">
         <x:v>176.5</x:v>
@@ -25883,730 +26079,739 @@
       <x:c r="NT23" s="3" t="n">
         <x:v>182.2</x:v>
       </x:c>
+      <x:c r="NU23" s="3" t="n">
+        <x:v>179.4</x:v>
+      </x:c>
+      <x:c r="NV23" s="3" t="n">
+        <x:v>152.7</x:v>
+      </x:c>
+      <x:c r="NW23" s="3" t="n">
+        <x:v>172.5</x:v>
+      </x:c>
     </x:row>
-    <x:row r="24" spans="1:384">
+    <x:row r="24" spans="1:387">
       <x:c r="B24" s="2" t="s">
-        <x:v>386</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="C24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="D24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="E24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="F24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="G24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="H24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="I24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="J24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="K24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="L24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="M24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="N24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="O24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="P24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="Q24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="R24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="S24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="T24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="U24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="V24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="W24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="X24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="Y24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="Z24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="AA24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="AB24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="AC24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="AD24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="AE24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="AF24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="AG24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="AH24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="AI24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="AJ24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="AK24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="AL24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="AM24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="AN24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="AO24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="AP24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="AQ24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="AR24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="AS24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="AT24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="AU24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="AV24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="AW24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="AX24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="AY24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="AZ24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="BA24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="BB24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="BC24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="BD24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="BE24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="BF24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="BG24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="BH24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="BI24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="BJ24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="BK24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="BL24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="BM24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="BN24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="BO24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="BP24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="BQ24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="BR24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="BS24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="BT24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="BU24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="BV24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="BW24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="BX24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="BY24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="BZ24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="CA24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="CB24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="CC24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="CD24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="CE24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="CF24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="CG24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="CH24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="CI24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="CJ24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="CK24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="CL24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="CM24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="CN24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="CO24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="CP24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="CQ24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="CR24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="CS24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="CT24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="CU24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="CV24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="CW24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="CX24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="CY24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="CZ24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="DA24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="DB24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="DC24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="DD24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="DE24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="DF24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="DG24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="DH24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="DI24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="DJ24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="DK24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="DL24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="DM24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="DN24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="DO24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="DP24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="DQ24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="DR24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="DS24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="DT24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="DU24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="DV24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="DW24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="DX24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="DY24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="DZ24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="EA24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="EB24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="EC24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="ED24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="EE24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="EF24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="EG24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="EH24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="EI24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="EJ24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="EK24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="EL24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="EM24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="EN24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="EO24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="EP24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="EQ24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="ER24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="ES24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="ET24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="EU24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="EV24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="EW24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="EX24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="EY24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="EZ24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="FA24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="FB24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="FC24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="FD24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="FE24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="FF24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="FG24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="FH24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="FI24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="FJ24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="FK24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="FL24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="FM24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="FN24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="FO24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="FP24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="FQ24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="FR24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="FS24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="FT24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="FU24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="FV24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="FW24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="FX24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="FY24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="FZ24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="GA24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="GB24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="GC24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="GD24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="GE24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="GF24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="GG24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="GH24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="GI24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="GJ24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="GK24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="GL24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="GM24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="GN24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="GO24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="GP24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="GQ24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="GR24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="GS24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="GT24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="GU24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="GV24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="GW24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="GX24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="GY24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="GZ24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="HA24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="HB24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="HC24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="HD24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="HE24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="HF24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="HG24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="HH24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="HI24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="HJ24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="HK24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="HL24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="HM24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="HN24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="HO24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="HP24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="HQ24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="HR24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="HS24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="HT24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="HU24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="HV24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="HW24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="HX24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="HY24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="HZ24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="IA24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="IB24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="IC24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="ID24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="IE24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="IF24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="IG24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="IH24" s="4" t="s">
-        <x:v>393</x:v>
+        <x:v>396</x:v>
       </x:c>
       <x:c r="II24" s="3" t="n">
         <x:v>148.4</x:v>
@@ -27034,13 +27239,22 @@
       <x:c r="NT24" s="3" t="n">
         <x:v>176.2</x:v>
       </x:c>
+      <x:c r="NU24" s="3" t="n">
+        <x:v>182.5</x:v>
+      </x:c>
+      <x:c r="NV24" s="3" t="n">
+        <x:v>159.3</x:v>
+      </x:c>
+      <x:c r="NW24" s="3" t="n">
+        <x:v>173.2</x:v>
+      </x:c>
     </x:row>
-    <x:row r="25" spans="1:384">
+    <x:row r="25" spans="1:387">
       <x:c r="A25" s="2" t="s">
-        <x:v>394</x:v>
+        <x:v>397</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
-        <x:v>384</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="C25" s="3" t="n">
         <x:v>78.4</x:v>
@@ -28117,13 +28331,13 @@
         <x:v>185.5</x:v>
       </x:c>
       <x:c r="MW25" s="3" t="n">
-        <x:v>189.7</x:v>
+        <x:v>189.6</x:v>
       </x:c>
       <x:c r="MX25" s="3" t="n">
         <x:v>188.6</x:v>
       </x:c>
       <x:c r="MY25" s="3" t="n">
-        <x:v>189.3</x:v>
+        <x:v>189.2</x:v>
       </x:c>
       <x:c r="MZ25" s="3" t="n">
         <x:v>187.8</x:v>
@@ -28132,7 +28346,7 @@
         <x:v>170.5</x:v>
       </x:c>
       <x:c r="NB25" s="3" t="n">
-        <x:v>165.3</x:v>
+        <x:v>165.4</x:v>
       </x:c>
       <x:c r="NC25" s="3" t="n">
         <x:v>163.3</x:v>
@@ -28144,7 +28358,7 @@
         <x:v>157.7</x:v>
       </x:c>
       <x:c r="NF25" s="3" t="n">
-        <x:v>172.5</x:v>
+        <x:v>172.6</x:v>
       </x:c>
       <x:c r="NG25" s="3" t="n">
         <x:v>168.4</x:v>
@@ -28159,7 +28373,7 @@
         <x:v>167.8</x:v>
       </x:c>
       <x:c r="NK25" s="3" t="n">
-        <x:v>176.3</x:v>
+        <x:v>176.2</x:v>
       </x:c>
       <x:c r="NL25" s="3" t="n">
         <x:v>177.3</x:v>
@@ -28188,10 +28402,19 @@
       <x:c r="NT25" s="3" t="n">
         <x:v>173.6</x:v>
       </x:c>
+      <x:c r="NU25" s="3" t="n">
+        <x:v>170.2</x:v>
+      </x:c>
+      <x:c r="NV25" s="3" t="n">
+        <x:v>167.4</x:v>
+      </x:c>
+      <x:c r="NW25" s="3" t="n">
+        <x:v>176</x:v>
+      </x:c>
     </x:row>
-    <x:row r="26" spans="1:384">
+    <x:row r="26" spans="1:387">
       <x:c r="B26" s="2" t="s">
-        <x:v>385</x:v>
+        <x:v>388</x:v>
       </x:c>
       <x:c r="C26" s="3" t="n">
         <x:v>85</x:v>
@@ -29244,16 +29467,16 @@
         <x:v>179.4</x:v>
       </x:c>
       <x:c r="MO26" s="3" t="n">
-        <x:v>187.9</x:v>
+        <x:v>188.3</x:v>
       </x:c>
       <x:c r="MP26" s="3" t="n">
-        <x:v>176</x:v>
+        <x:v>175.7</x:v>
       </x:c>
       <x:c r="MQ26" s="3" t="n">
-        <x:v>198.9</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="MR26" s="3" t="n">
-        <x:v>194.3</x:v>
+        <x:v>194.2</x:v>
       </x:c>
       <x:c r="MS26" s="3" t="n">
         <x:v>122.3</x:v>
@@ -29280,16 +29503,16 @@
         <x:v>188.6</x:v>
       </x:c>
       <x:c r="NA26" s="3" t="n">
-        <x:v>180.4</x:v>
+        <x:v>180.7</x:v>
       </x:c>
       <x:c r="NB26" s="3" t="n">
-        <x:v>158.5</x:v>
+        <x:v>158.2</x:v>
       </x:c>
       <x:c r="NC26" s="3" t="n">
-        <x:v>174.5</x:v>
+        <x:v>174.6</x:v>
       </x:c>
       <x:c r="ND26" s="3" t="n">
-        <x:v>169.4</x:v>
+        <x:v>169.3</x:v>
       </x:c>
       <x:c r="NE26" s="3" t="n">
         <x:v>103.2</x:v>
@@ -29316,16 +29539,16 @@
         <x:v>177.9</x:v>
       </x:c>
       <x:c r="NM26" s="3" t="n">
-        <x:v>184</x:v>
+        <x:v>184.3</x:v>
       </x:c>
       <x:c r="NN26" s="3" t="n">
-        <x:v>159.5</x:v>
+        <x:v>159.2</x:v>
       </x:c>
       <x:c r="NO26" s="3" t="n">
         <x:v>181.8</x:v>
       </x:c>
       <x:c r="NP26" s="3" t="n">
-        <x:v>180.1</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="NQ26" s="3" t="n">
         <x:v>111.2</x:v>
@@ -29339,10 +29562,19 @@
       <x:c r="NT26" s="3" t="n">
         <x:v>188.7</x:v>
       </x:c>
+      <x:c r="NU26" s="3" t="n">
+        <x:v>186</x:v>
+      </x:c>
+      <x:c r="NV26" s="3" t="n">
+        <x:v>154</x:v>
+      </x:c>
+      <x:c r="NW26" s="3" t="n">
+        <x:v>185.6</x:v>
+      </x:c>
     </x:row>
-    <x:row r="27" spans="1:384">
+    <x:row r="27" spans="1:387">
       <x:c r="B27" s="2" t="s">
-        <x:v>386</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="C27" s="3" t="n">
         <x:v>84.5</x:v>
@@ -30490,13 +30722,22 @@
       <x:c r="NT27" s="3" t="n">
         <x:v>181.4</x:v>
       </x:c>
+      <x:c r="NU27" s="3" t="n">
+        <x:v>189.4</x:v>
+      </x:c>
+      <x:c r="NV27" s="3" t="n">
+        <x:v>159.1</x:v>
+      </x:c>
+      <x:c r="NW27" s="3" t="n">
+        <x:v>177.7</x:v>
+      </x:c>
     </x:row>
-    <x:row r="28" spans="1:384">
+    <x:row r="28" spans="1:387">
       <x:c r="A28" s="2" t="s">
-        <x:v>395</x:v>
+        <x:v>398</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s">
-        <x:v>384</x:v>
+        <x:v>387</x:v>
       </x:c>
       <x:c r="C28" s="3" t="n">
         <x:v>95.4</x:v>
@@ -31561,7 +31802,7 @@
         <x:v>97.1</x:v>
       </x:c>
       <x:c r="MS28" s="3" t="n">
-        <x:v>98</x:v>
+        <x:v>97.9</x:v>
       </x:c>
       <x:c r="MT28" s="3" t="n">
         <x:v>97.5</x:v>
@@ -31644,10 +31885,19 @@
       <x:c r="NT28" s="3" t="n">
         <x:v>99.2</x:v>
       </x:c>
+      <x:c r="NU28" s="3" t="n">
+        <x:v>100.3</x:v>
+      </x:c>
+      <x:c r="NV28" s="3" t="n">
+        <x:v>98.6</x:v>
+      </x:c>
+      <x:c r="NW28" s="3" t="n">
+        <x:v>100.8</x:v>
+      </x:c>
     </x:row>
-    <x:row r="29" spans="1:384">
+    <x:row r="29" spans="1:387">
       <x:c r="B29" s="2" t="s">
-        <x:v>385</x:v>
+        <x:v>388</x:v>
       </x:c>
       <x:c r="C29" s="3" t="n">
         <x:v>96.8</x:v>
@@ -32700,16 +32950,16 @@
         <x:v>94.5</x:v>
       </x:c>
       <x:c r="MO29" s="3" t="n">
-        <x:v>98.3</x:v>
+        <x:v>98.4</x:v>
       </x:c>
       <x:c r="MP29" s="3" t="n">
-        <x:v>94.2</x:v>
+        <x:v>94.1</x:v>
       </x:c>
       <x:c r="MQ29" s="3" t="n">
-        <x:v>103.8</x:v>
+        <x:v>103.9</x:v>
       </x:c>
       <x:c r="MR29" s="3" t="n">
-        <x:v>101.5</x:v>
+        <x:v>101.4</x:v>
       </x:c>
       <x:c r="MS29" s="3" t="n">
         <x:v>77</x:v>
@@ -32736,16 +32986,16 @@
         <x:v>93.3</x:v>
       </x:c>
       <x:c r="NA29" s="3" t="n">
-        <x:v>98</x:v>
+        <x:v>98.1</x:v>
       </x:c>
       <x:c r="NB29" s="3" t="n">
-        <x:v>91.1</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="NC29" s="3" t="n">
-        <x:v>97.1</x:v>
+        <x:v>97.2</x:v>
       </x:c>
       <x:c r="ND29" s="3" t="n">
-        <x:v>96.7</x:v>
+        <x:v>96.6</x:v>
       </x:c>
       <x:c r="NE29" s="3" t="n">
         <x:v>74.5</x:v>
@@ -32772,16 +33022,16 @@
         <x:v>96.5</x:v>
       </x:c>
       <x:c r="NM29" s="3" t="n">
-        <x:v>103.6</x:v>
+        <x:v>103.7</x:v>
       </x:c>
       <x:c r="NN29" s="3" t="n">
-        <x:v>97.2</x:v>
+        <x:v>97.1</x:v>
       </x:c>
       <x:c r="NO29" s="3" t="n">
-        <x:v>105.9</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="NP29" s="3" t="n">
-        <x:v>105.1</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="NQ29" s="3" t="n">
         <x:v>79</x:v>
@@ -32795,10 +33045,19 @@
       <x:c r="NT29" s="3" t="n">
         <x:v>109.1</x:v>
       </x:c>
+      <x:c r="NU29" s="3" t="n">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="NV29" s="3" t="n">
+        <x:v>89.9</x:v>
+      </x:c>
+      <x:c r="NW29" s="3" t="n">
+        <x:v>102.7</x:v>
+      </x:c>
     </x:row>
-    <x:row r="30" spans="1:384">
+    <x:row r="30" spans="1:387">
       <x:c r="B30" s="2" t="s">
-        <x:v>386</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="C30" s="3" t="n">
         <x:v>96.7</x:v>
@@ -33946,278 +34205,297 @@
       <x:c r="NT30" s="3" t="n">
         <x:v>105.6</x:v>
       </x:c>
+      <x:c r="NU30" s="3" t="n">
+        <x:v>107.5</x:v>
+      </x:c>
+      <x:c r="NV30" s="3" t="n">
+        <x:v>91.9</x:v>
+      </x:c>
+      <x:c r="NW30" s="3" t="n">
+        <x:v>98.9</x:v>
+      </x:c>
     </x:row>
-    <x:row r="32" spans="1:384">
+    <x:row r="32" spans="1:387">
       <x:c r="A32" s="5" t="s">
-        <x:v>396</x:v>
+        <x:v>399</x:v>
       </x:c>
     </x:row>
-    <x:row r="33" spans="1:384">
+    <x:row r="33" spans="1:387">
       <x:c r="A33" s="5" t="s">
-        <x:v>397</x:v>
+        <x:v>400</x:v>
       </x:c>
     </x:row>
-    <x:row r="35" spans="1:384">
-      <x:c r="A35" s="0" t="s">
-        <x:v>398</x:v>
+    <x:row r="34" spans="1:387">
+      <x:c r="A34" s="5" t="s">
+        <x:v>401</x:v>
       </x:c>
     </x:row>
-    <x:row r="36" spans="1:384">
+    <x:row r="36" spans="1:387">
       <x:c r="A36" s="0" t="s">
-        <x:v>399</x:v>
+        <x:v>402</x:v>
       </x:c>
     </x:row>
-    <x:row r="37" spans="1:384">
+    <x:row r="37" spans="1:387">
       <x:c r="A37" s="0" t="s">
-        <x:v>400</x:v>
+        <x:v>403</x:v>
       </x:c>
     </x:row>
-    <x:row r="38" spans="1:384">
+    <x:row r="38" spans="1:387">
       <x:c r="A38" s="0" t="s">
-        <x:v>401</x:v>
+        <x:v>404</x:v>
       </x:c>
     </x:row>
-    <x:row r="39" spans="1:384">
+    <x:row r="39" spans="1:387">
       <x:c r="A39" s="0" t="s">
-        <x:v>400</x:v>
+        <x:v>405</x:v>
       </x:c>
     </x:row>
-    <x:row r="40" spans="1:384">
+    <x:row r="40" spans="1:387">
       <x:c r="A40" s="0" t="s">
-        <x:v>402</x:v>
+        <x:v>404</x:v>
       </x:c>
     </x:row>
-    <x:row r="41" spans="1:384">
+    <x:row r="41" spans="1:387">
       <x:c r="A41" s="0" t="s">
-        <x:v>400</x:v>
+        <x:v>406</x:v>
       </x:c>
     </x:row>
-    <x:row r="43" spans="1:384">
-      <x:c r="A43" s="0" t="s">
+    <x:row r="42" spans="1:387">
+      <x:c r="A42" s="0" t="s">
+        <x:v>404</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:387">
+      <x:c r="A44" s="0" t="s">
+        <x:v>407</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:387">
+      <x:c r="A45" s="0" t="s">
+        <x:v>408</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:387">
+      <x:c r="A47" s="0" t="s">
+        <x:v>409</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:387">
+      <x:c r="A48" s="0" t="s">
         <x:v>403</x:v>
       </x:c>
     </x:row>
-    <x:row r="44" spans="1:384">
-      <x:c r="A44" s="0" t="s">
-        <x:v>404</x:v>
+    <x:row r="49" spans="1:387">
+      <x:c r="A49" s="0" t="s">
+        <x:v>410</x:v>
       </x:c>
     </x:row>
-    <x:row r="46" spans="1:384">
-      <x:c r="A46" s="0" t="s">
+    <x:row r="50" spans="1:387">
+      <x:c r="A50" s="0" t="s">
+        <x:v>411</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:387">
+      <x:c r="A51" s="0" t="s">
+        <x:v>412</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:387">
+      <x:c r="A55" s="0" t="s">
+        <x:v>413</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:387">
+      <x:c r="A57" s="0" t="s">
+        <x:v>414</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:387">
+      <x:c r="A58" s="0" t="s">
+        <x:v>403</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:387">
+      <x:c r="A59" s="0" t="s">
+        <x:v>415</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="60" spans="1:387">
+      <x:c r="A60" s="0" t="s">
         <x:v>405</x:v>
       </x:c>
     </x:row>
-    <x:row r="47" spans="1:384">
-      <x:c r="A47" s="0" t="s">
-        <x:v>399</x:v>
+    <x:row r="61" spans="1:387">
+      <x:c r="A61" s="0" t="s">
+        <x:v>415</x:v>
       </x:c>
     </x:row>
-    <x:row r="48" spans="1:384">
-      <x:c r="A48" s="0" t="s">
+    <x:row r="62" spans="1:387">
+      <x:c r="A62" s="0" t="s">
         <x:v>406</x:v>
       </x:c>
     </x:row>
-    <x:row r="49" spans="1:384">
-      <x:c r="A49" s="0" t="s">
-        <x:v>407</x:v>
+    <x:row r="63" spans="1:387">
+      <x:c r="A63" s="0" t="s">
+        <x:v>415</x:v>
       </x:c>
     </x:row>
-    <x:row r="50" spans="1:384">
-      <x:c r="A50" s="0" t="s">
-        <x:v>408</x:v>
+    <x:row r="64" spans="1:387">
+      <x:c r="A64" s="0" t="s">
+        <x:v>416</x:v>
       </x:c>
     </x:row>
-    <x:row r="54" spans="1:384">
-      <x:c r="A54" s="0" t="s">
-        <x:v>409</x:v>
+    <x:row r="65" spans="1:387">
+      <x:c r="A65" s="0" t="s">
+        <x:v>403</x:v>
       </x:c>
     </x:row>
-    <x:row r="56" spans="1:384">
-      <x:c r="A56" s="0" t="s">
-        <x:v>410</x:v>
+    <x:row r="66" spans="1:387">
+      <x:c r="A66" s="0" t="s">
+        <x:v>417</x:v>
       </x:c>
     </x:row>
-    <x:row r="57" spans="1:384">
-      <x:c r="A57" s="0" t="s">
-        <x:v>399</x:v>
+    <x:row r="67" spans="1:387">
+      <x:c r="A67" s="0" t="s">
+        <x:v>405</x:v>
       </x:c>
     </x:row>
-    <x:row r="58" spans="1:384">
-      <x:c r="A58" s="0" t="s">
-        <x:v>411</x:v>
+    <x:row r="68" spans="1:387">
+      <x:c r="A68" s="0" t="s">
+        <x:v>417</x:v>
       </x:c>
     </x:row>
-    <x:row r="59" spans="1:384">
-      <x:c r="A59" s="0" t="s">
-        <x:v>401</x:v>
+    <x:row r="69" spans="1:387">
+      <x:c r="A69" s="0" t="s">
+        <x:v>406</x:v>
       </x:c>
     </x:row>
-    <x:row r="60" spans="1:384">
-      <x:c r="A60" s="0" t="s">
-        <x:v>411</x:v>
+    <x:row r="70" spans="1:387">
+      <x:c r="A70" s="0" t="s">
+        <x:v>417</x:v>
       </x:c>
     </x:row>
-    <x:row r="61" spans="1:384">
-      <x:c r="A61" s="0" t="s">
-        <x:v>402</x:v>
+    <x:row r="72" spans="1:387">
+      <x:c r="A72" s="0" t="s">
+        <x:v>418</x:v>
       </x:c>
     </x:row>
-    <x:row r="62" spans="1:384">
-      <x:c r="A62" s="0" t="s">
-        <x:v>411</x:v>
+    <x:row r="73" spans="1:387">
+      <x:c r="A73" s="0" t="s">
+        <x:v>387</x:v>
       </x:c>
     </x:row>
-    <x:row r="63" spans="1:384">
-      <x:c r="A63" s="0" t="s">
-        <x:v>412</x:v>
+    <x:row r="74" spans="1:387">
+      <x:c r="A74" s="0" t="s">
+        <x:v>419</x:v>
       </x:c>
     </x:row>
-    <x:row r="64" spans="1:384">
-      <x:c r="A64" s="0" t="s">
-        <x:v>399</x:v>
+    <x:row r="75" spans="1:387">
+      <x:c r="A75" s="0" t="s">
+        <x:v>388</x:v>
       </x:c>
     </x:row>
-    <x:row r="65" spans="1:384">
-      <x:c r="A65" s="0" t="s">
-        <x:v>413</x:v>
+    <x:row r="76" spans="1:387">
+      <x:c r="A76" s="0" t="s">
+        <x:v>419</x:v>
       </x:c>
     </x:row>
-    <x:row r="66" spans="1:384">
-      <x:c r="A66" s="0" t="s">
-        <x:v>401</x:v>
+    <x:row r="77" spans="1:387">
+      <x:c r="A77" s="0" t="s">
+        <x:v>389</x:v>
       </x:c>
     </x:row>
-    <x:row r="67" spans="1:384">
-      <x:c r="A67" s="0" t="s">
-        <x:v>413</x:v>
+    <x:row r="78" spans="1:387">
+      <x:c r="A78" s="0" t="s">
+        <x:v>419</x:v>
       </x:c>
     </x:row>
-    <x:row r="68" spans="1:384">
-      <x:c r="A68" s="0" t="s">
-        <x:v>402</x:v>
+    <x:row r="80" spans="1:387">
+      <x:c r="A80" s="0" t="s">
+        <x:v>403</x:v>
       </x:c>
     </x:row>
-    <x:row r="69" spans="1:384">
-      <x:c r="A69" s="0" t="s">
-        <x:v>413</x:v>
+    <x:row r="81" spans="1:387">
+      <x:c r="A81" s="0" t="s">
+        <x:v>420</x:v>
       </x:c>
     </x:row>
-    <x:row r="71" spans="1:384">
-      <x:c r="A71" s="0" t="s">
-        <x:v>414</x:v>
+    <x:row r="82" spans="1:387">
+      <x:c r="A82" s="0" t="s">
+        <x:v>405</x:v>
       </x:c>
     </x:row>
-    <x:row r="72" spans="1:384">
-      <x:c r="A72" s="0" t="s">
-        <x:v>384</x:v>
+    <x:row r="83" spans="1:387">
+      <x:c r="A83" s="0" t="s">
+        <x:v>420</x:v>
       </x:c>
     </x:row>
-    <x:row r="73" spans="1:384">
-      <x:c r="A73" s="0" t="s">
-        <x:v>415</x:v>
+    <x:row r="84" spans="1:387">
+      <x:c r="A84" s="0" t="s">
+        <x:v>406</x:v>
       </x:c>
     </x:row>
-    <x:row r="74" spans="1:384">
-      <x:c r="A74" s="0" t="s">
-        <x:v>385</x:v>
+    <x:row r="85" spans="1:387">
+      <x:c r="A85" s="0" t="s">
+        <x:v>420</x:v>
       </x:c>
     </x:row>
-    <x:row r="75" spans="1:384">
-      <x:c r="A75" s="0" t="s">
-        <x:v>415</x:v>
+    <x:row r="88" spans="1:387">
+      <x:c r="A88" s="0" t="s">
+        <x:v>403</x:v>
       </x:c>
     </x:row>
-    <x:row r="76" spans="1:384">
-      <x:c r="A76" s="0" t="s">
-        <x:v>386</x:v>
+    <x:row r="89" spans="1:387">
+      <x:c r="A89" s="0" t="s">
+        <x:v>421</x:v>
       </x:c>
     </x:row>
-    <x:row r="77" spans="1:384">
-      <x:c r="A77" s="0" t="s">
-        <x:v>415</x:v>
+    <x:row r="90" spans="1:387">
+      <x:c r="A90" s="0" t="s">
+        <x:v>405</x:v>
       </x:c>
     </x:row>
-    <x:row r="79" spans="1:384">
-      <x:c r="A79" s="0" t="s">
-        <x:v>399</x:v>
+    <x:row r="91" spans="1:387">
+      <x:c r="A91" s="0" t="s">
+        <x:v>421</x:v>
       </x:c>
     </x:row>
-    <x:row r="80" spans="1:384">
-      <x:c r="A80" s="0" t="s">
-        <x:v>416</x:v>
+    <x:row r="93" spans="1:387">
+      <x:c r="A93" s="0" t="s">
+        <x:v>403</x:v>
       </x:c>
     </x:row>
-    <x:row r="81" spans="1:384">
-      <x:c r="A81" s="0" t="s">
-        <x:v>401</x:v>
+    <x:row r="94" spans="1:387">
+      <x:c r="A94" s="0" t="s">
+        <x:v>422</x:v>
       </x:c>
     </x:row>
-    <x:row r="82" spans="1:384">
-      <x:c r="A82" s="0" t="s">
-        <x:v>416</x:v>
+    <x:row r="97" spans="1:387">
+      <x:c r="A97" s="0" t="s">
+        <x:v>423</x:v>
       </x:c>
     </x:row>
-    <x:row r="83" spans="1:384">
-      <x:c r="A83" s="0" t="s">
-        <x:v>402</x:v>
+    <x:row r="98" spans="1:387">
+      <x:c r="A98" s="0" t="s">
+        <x:v>424</x:v>
       </x:c>
     </x:row>
-    <x:row r="84" spans="1:384">
-      <x:c r="A84" s="0" t="s">
-        <x:v>416</x:v>
+    <x:row r="100" spans="1:387">
+      <x:c r="A100" s="0" t="s">
+        <x:v>425</x:v>
       </x:c>
     </x:row>
-    <x:row r="87" spans="1:384">
-      <x:c r="A87" s="0" t="s">
-        <x:v>399</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="88" spans="1:384">
-      <x:c r="A88" s="0" t="s">
-        <x:v>417</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="89" spans="1:384">
-      <x:c r="A89" s="0" t="s">
-        <x:v>401</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="90" spans="1:384">
-      <x:c r="A90" s="0" t="s">
-        <x:v>417</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="92" spans="1:384">
-      <x:c r="A92" s="0" t="s">
-        <x:v>399</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="93" spans="1:384">
-      <x:c r="A93" s="0" t="s">
-        <x:v>418</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="96" spans="1:384">
-      <x:c r="A96" s="0" t="s">
-        <x:v>419</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="97" spans="1:384">
-      <x:c r="A97" s="0" t="s">
-        <x:v>420</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="99" spans="1:384">
-      <x:c r="A99" s="0" t="s">
-        <x:v>421</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="100" spans="1:384">
-      <x:c r="A100" s="0" t="s">
-        <x:v>422</x:v>
+    <x:row r="101" spans="1:387">
+      <x:c r="A101" s="0" t="s">
+        <x:v>426</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
+  <x:mergeCells count="3">
+    <x:mergeCell ref="A32:NW32"/>
+    <x:mergeCell ref="A33:NW33"/>
+    <x:mergeCell ref="A34:NW34"/>
+  </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
